--- a/Cleaned Data/merged_df.xlsx
+++ b/Cleaned Data/merged_df.xlsx
@@ -19401,7 +19401,11 @@
         </is>
       </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
@@ -19504,7 +19508,11 @@
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
@@ -19607,7 +19615,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
@@ -19718,7 +19730,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
@@ -19823,7 +19839,11 @@
         </is>
       </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -19926,7 +19946,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
@@ -20035,7 +20059,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
@@ -20179,7 +20207,11 @@
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
@@ -20311,7 +20343,11 @@
         </is>
       </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
@@ -20417,7 +20453,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
@@ -20531,7 +20571,11 @@
         </is>
       </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
@@ -20636,7 +20680,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -20752,7 +20800,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
@@ -20866,7 +20918,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
@@ -20982,7 +21038,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -21094,7 +21154,11 @@
         </is>
       </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
@@ -21197,7 +21261,11 @@
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -21298,7 +21366,11 @@
         </is>
       </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -21399,7 +21471,11 @@
         </is>
       </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -21535,7 +21611,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -21675,7 +21755,11 @@
         </is>
       </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
@@ -21781,7 +21865,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
@@ -21890,7 +21978,11 @@
         </is>
       </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -21996,7 +22088,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -22110,7 +22206,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -22219,7 +22319,11 @@
         </is>
       </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -22325,7 +22429,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -22464,7 +22572,11 @@
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
@@ -22596,7 +22708,11 @@
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
@@ -22702,7 +22818,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
@@ -22816,7 +22936,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
@@ -22929,7 +23053,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
@@ -23037,7 +23165,11 @@
         </is>
       </c>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -23140,7 +23272,11 @@
         </is>
       </c>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
@@ -23245,7 +23381,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
@@ -23356,7 +23496,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
@@ -23469,7 +23613,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
@@ -23576,7 +23724,11 @@
         </is>
       </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
@@ -23673,7 +23825,11 @@
       </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
@@ -23778,7 +23934,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
@@ -23885,7 +24045,11 @@
         </is>
       </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
@@ -23994,7 +24158,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
@@ -24110,7 +24278,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
@@ -24222,7 +24394,11 @@
         </is>
       </c>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
@@ -24323,7 +24499,11 @@
       </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
@@ -24426,7 +24606,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
@@ -24527,7 +24711,11 @@
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
@@ -24630,7 +24818,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
@@ -24741,7 +24933,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
@@ -24880,7 +25076,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
@@ -25012,7 +25212,11 @@
         </is>
       </c>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -25118,7 +25322,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
@@ -25227,7 +25435,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
@@ -25339,7 +25551,11 @@
         </is>
       </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -25442,7 +25658,11 @@
         </is>
       </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
@@ -25547,7 +25767,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
@@ -25654,7 +25878,11 @@
         </is>
       </c>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -25759,7 +25987,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
@@ -25870,7 +26102,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
@@ -25971,7 +26207,11 @@
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
@@ -26072,7 +26312,11 @@
         </is>
       </c>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
@@ -26208,7 +26452,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -26354,7 +26602,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -26470,7 +26722,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -26581,7 +26837,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -26684,7 +26944,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -26793,7 +27057,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
@@ -26932,7 +27200,11 @@
         </is>
       </c>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -27065,7 +27337,11 @@
         </is>
       </c>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
@@ -27171,7 +27447,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
@@ -27280,7 +27560,11 @@
         </is>
       </c>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
@@ -27386,7 +27670,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
@@ -27487,7 +27775,11 @@
       </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
@@ -27592,7 +27884,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
@@ -27703,7 +27999,11 @@
         </is>
       </c>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
@@ -27806,7 +28106,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
@@ -27911,7 +28215,11 @@
         </is>
       </c>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
@@ -28014,7 +28322,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
@@ -28123,7 +28435,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
@@ -28266,7 +28582,11 @@
         </is>
       </c>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
@@ -28409,7 +28729,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
@@ -28522,7 +28846,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
@@ -28633,7 +28961,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
@@ -28769,7 +29101,11 @@
         </is>
       </c>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
@@ -28902,7 +29238,11 @@
         </is>
       </c>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
@@ -29003,7 +29343,11 @@
         </is>
       </c>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
@@ -29138,7 +29482,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
@@ -29271,7 +29619,11 @@
         </is>
       </c>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
@@ -29377,7 +29729,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr"/>
@@ -29482,7 +29838,11 @@
         </is>
       </c>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr"/>
@@ -29589,7 +29949,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr"/>
@@ -29694,7 +30058,11 @@
         </is>
       </c>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr"/>
@@ -29834,7 +30202,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
@@ -29977,7 +30349,11 @@
         </is>
       </c>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
@@ -30088,7 +30464,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
@@ -30202,7 +30582,11 @@
         </is>
       </c>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
@@ -30341,7 +30725,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
@@ -30484,7 +30872,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
@@ -30623,7 +31015,11 @@
         </is>
       </c>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr"/>
@@ -30762,7 +31158,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
@@ -30901,7 +31301,11 @@
         </is>
       </c>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
@@ -31040,7 +31444,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr"/>
@@ -31173,7 +31581,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
@@ -31308,7 +31720,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
@@ -31419,7 +31835,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
@@ -31522,7 +31942,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
@@ -31619,7 +32043,11 @@
       </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
@@ -31724,7 +32152,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
@@ -31833,7 +32265,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
@@ -31974,7 +32410,11 @@
         </is>
       </c>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
@@ -32111,7 +32551,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
@@ -32217,7 +32661,11 @@
         </is>
       </c>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
@@ -32324,7 +32772,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr"/>
@@ -32433,7 +32885,11 @@
         </is>
       </c>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
@@ -32530,7 +32986,11 @@
       </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
@@ -32665,7 +33125,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
@@ -32802,7 +33266,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
@@ -32911,7 +33379,11 @@
         </is>
       </c>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
@@ -33018,7 +33490,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr"/>
@@ -33127,7 +33603,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
@@ -33236,7 +33716,11 @@
         </is>
       </c>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
@@ -33339,7 +33823,11 @@
         </is>
       </c>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
@@ -33444,7 +33932,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
@@ -33581,7 +34073,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr"/>
@@ -33690,7 +34186,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr"/>
@@ -33793,7 +34293,11 @@
       </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
@@ -33896,7 +34400,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr"/>
@@ -33999,7 +34507,11 @@
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
@@ -34102,7 +34614,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
@@ -34211,7 +34727,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
@@ -34344,7 +34864,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr"/>
@@ -34481,7 +35005,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr"/>
@@ -34574,7 +35102,11 @@
       </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
@@ -34669,7 +35201,11 @@
       </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr"/>
@@ -34802,7 +35338,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr"/>
@@ -34929,7 +35469,11 @@
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
@@ -35062,7 +35606,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
@@ -35193,7 +35741,11 @@
       </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr"/>
@@ -35326,7 +35878,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
@@ -35461,7 +36017,11 @@
         </is>
       </c>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
@@ -35594,7 +36154,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr"/>
